--- a/Brighway/Results/Ananas contribution - CONSQ.xlsx
+++ b/Brighway/Results/Ananas contribution - CONSQ.xlsx
@@ -79,10 +79,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 0.00013896582908387405]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0008632211009773005]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3102513886946357e-05]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0008632211009773005]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3102513886946357e-05]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 5.1128321043765874e-06]]</t>
@@ -118,10 +118,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 0.02337957579346481]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.1310690931911876]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0031809503361051213]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.1310690931911876]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0031809503361051213]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 0.0021324672021639807]]</t>
@@ -157,10 +157,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 1.4404524083329517]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.24075710897551195]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01751323955765493]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.24075710897551195]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.01751323955765493]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 0.014308575806399947]]</t>
@@ -196,10 +196,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 0.20052001646412607]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2546444940806487]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.03342991844845587]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.2546444940806487]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.03342991844845587]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 0.03016378175125673]]</t>
@@ -235,10 +235,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 0.00018762709538521408]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.489880222542603e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.9157591893690164e-06]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -4.489880222542603e-05]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.9157591893690164e-06]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 2.1641692036306876e-07]]</t>
@@ -274,10 +274,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 0.0003436229861670134]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014203711352531837]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0732239365812286e-06]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00014203711352531837]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.0732239365812286e-06]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 1.3826016473134355e-06]]</t>
@@ -313,10 +313,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 0.00047487836259920807]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014965946519927967]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0447074440056558e-05]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0014965946519927967]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -3.0447074440056558e-05]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 1.4256163138019514e-05]]</t>
@@ -352,10 +352,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 4.322849503680417e-11]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6383709604842e-10]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.3454077519065457e-11]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.6383709604842e-10]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3454077519065457e-11]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 1.1754579073721845e-12]]</t>
@@ -391,10 +391,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 1.3069723084130544e-09]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.0290939806674318e-09]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4327770306764847e-11]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.0290939806674318e-09]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.4327770306764847e-11]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 2.203031249443254e-11]]</t>
@@ -430,10 +430,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 0.001755590569259854]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001246799904196071]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00014755172970456635]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.001246799904196071]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014755172970456635]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 1.0961680168464363e-05]]</t>
@@ -469,10 +469,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 0.9278423208700517]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.17506952503629644]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004021728809466358]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.17506952503629644]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.004021728809466358]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 0.018747663837717685]]</t>
@@ -508,10 +508,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 1.995155195350066e-07]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.0018459803031828e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -2.385020693633821e-07]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0018459803031828e-06]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.385020693633821e-07]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 4.203508200187605e-09]]</t>
@@ -547,10 +547,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 7.056252772238615e-10]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.801157418293037e-10]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.434689896654037e-11]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -9.801157418293037e-10]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -8.434689896654037e-11]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 4.8640333822238504e-11]]</t>
@@ -586,10 +586,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 2.1520410437413735e-09]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1187702309886463e-08]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9362436362420777e-10]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.1187702309886463e-08]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.9362436362420777e-10]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 1.5196424176911972e-10]]</t>
@@ -625,10 +625,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 9.142048860869044e-05]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00048749466474446324]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.780167899316029e-05]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.00048749466474446324]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -1.780167899316029e-05]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 7.90076841276903e-06]]</t>
@@ -664,10 +664,10 @@
     <t>[["'Handwash - CONSQ' (unit, GLO, None)", 0.052961822200284316]]</t>
   </si>
   <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0343223575940459]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000669204985520275]]</t>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.0343223575940459]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of metal scrap, mixed, for recycling, unsorted, sorting' (kilogram, Europe without Switzerland, None)", -0.000669204985520275]]</t>
   </si>
   <si>
     <t>[["'transport Alu - CONSQ' (unit, GLO, None)", 0.0001377362673635314]]</t>
